--- a/testing/UsecasesDemo.xlsx
+++ b/testing/UsecasesDemo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanjai.j\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\changepond-training\changepond-training\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4425" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14388" windowHeight="4428" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Version Control" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -547,27 +547,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,12 +854,12 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -868,7 +868,7 @@
       <c r="D1" s="25"/>
       <c r="E1" s="26"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -885,7 +885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -902,7 +902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -919,7 +919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -936,7 +936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -953,7 +953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -982,19 +982,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" style="14" customWidth="1"/>
     <col min="2" max="2" width="97" style="14" customWidth="1"/>
-    <col min="3" max="11" width="8.7109375" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="14.42578125" style="14"/>
+    <col min="3" max="11" width="8.6640625" style="14" customWidth="1"/>
+    <col min="12" max="16384" width="14.44140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
@@ -1026,341 +1026,341 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="28"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="28"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="28"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="28"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="16"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="16"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="28"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="16"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="16"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="16"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="16"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="16"/>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="16"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="16"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="16"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="16"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="16"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="16"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
       <c r="B25" s="28"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="32"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="34"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
       <c r="B28" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="32"/>
       <c r="B29" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="32"/>
       <c r="B30" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="32"/>
       <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="32"/>
       <c r="B32" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="32"/>
       <c r="B33" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="32"/>
       <c r="B34" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="32"/>
       <c r="B35" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="32"/>
       <c r="B36" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="32"/>
       <c r="B37" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="32"/>
       <c r="B38" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="32"/>
       <c r="B39" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="32"/>
       <c r="B40" s="19"/>
     </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="32"/>
       <c r="B41" s="19"/>
     </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="32"/>
       <c r="B42" s="19"/>
     </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="32"/>
       <c r="B43" s="19"/>
     </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="33"/>
       <c r="B44" s="19"/>
     </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B45" s="28"/>
     </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="20"/>
     </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="28"/>
     </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="13"/>
     </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
     </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B50" s="28"/>
     </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="27"/>
       <c r="B51" s="28"/>
     </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
     </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
     </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B54" s="13"/>
     </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B55" s="13"/>
     </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="13"/>
     </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B57" s="13"/>
     </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="28"/>
     </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="27"/>
       <c r="B59" s="28"/>
     </row>
-    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="35"/>
       <c r="B60" s="28"/>
     </row>
-    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="35"/>
       <c r="B61" s="28"/>
     </row>
-    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="35"/>
       <c r="B62" s="28"/>
     </row>
-    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="29"/>
       <c r="B63" s="28"/>
     </row>
-    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="29"/>
       <c r="B64" s="28"/>
     </row>
-    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="29" t="s">
+    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B65" s="28"/>
     </row>
-    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>16</v>
       </c>
@@ -1368,117 +1368,116 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
     </row>
-    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
+    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="31"/>
       <c r="B68" s="13"/>
     </row>
-    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
+    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="32"/>
       <c r="B69" s="19"/>
     </row>
-    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="34"/>
+    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="32"/>
       <c r="B70" s="19"/>
     </row>
-    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="34"/>
+    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="32"/>
       <c r="B71" s="19"/>
     </row>
-    <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="34"/>
+    <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="32"/>
       <c r="B72" s="19"/>
     </row>
-    <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
+    <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="32"/>
       <c r="B73" s="19"/>
     </row>
-    <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
+    <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="32"/>
       <c r="B74" s="13"/>
     </row>
-    <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
+    <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="32"/>
       <c r="B75" s="19"/>
     </row>
-    <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
+    <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="32"/>
       <c r="B76" s="19"/>
     </row>
-    <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
+    <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="32"/>
       <c r="B77" s="19"/>
     </row>
-    <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
+    <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="32"/>
       <c r="B78" s="19"/>
     </row>
-    <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="35"/>
+    <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="33"/>
       <c r="B79" s="19"/>
     </row>
-    <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="29" t="s">
+    <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="30" t="s">
         <v>12</v>
       </c>
       <c r="B80" s="28"/>
     </row>
-    <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
     </row>
-    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="29" t="s">
+    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B82" s="28"/>
     </row>
-    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
     </row>
-    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
     </row>
-    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29" t="s">
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="30" t="s">
         <v>14</v>
       </c>
       <c r="B85" s="28"/>
     </row>
-    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="30" t="s">
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B86" s="28"/>
     </row>
-    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A68:A79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A28:A44"/>
@@ -1491,12 +1490,13 @@
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A68:A79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A85:B85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1510,72 +1510,72 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="8.7109375" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="14.42578125" style="14"/>
+    <col min="1" max="9" width="8.6640625" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
